--- a/Results/Finite_Neuron_Method_Results.xlsx
+++ b/Results/Finite_Neuron_Method_Results.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Increasing R" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Increasing R - Derivative activations" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full_tests" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Increasing # of Neurons" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Increasing # of Collocation Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Increasing # of Neurons" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Increasing # of Collocation Points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Increasing R" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Increasing R - Derivative activations" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full_tests" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.685811795869551e-05</v>
+        <v>6.250562665604196</v>
       </c>
       <c r="B2" t="n">
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -485,45 +485,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0006290533002323463</v>
+        <v>5.856327897194386</v>
       </c>
       <c r="B3" t="n">
         <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0005816458539950793</v>
+        <v>4.312206166625457</v>
       </c>
       <c r="B4" t="n">
         <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0001061212057222671</v>
+        <v>4.36320317816154</v>
       </c>
       <c r="B5" t="n">
         <v>50</v>
@@ -533,45 +533,45 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.437438982199691e-05</v>
+        <v>2.262773904654109</v>
       </c>
       <c r="B6" t="n">
         <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8206906967848997</v>
+        <v>1.35669376578</v>
       </c>
       <c r="B7" t="n">
         <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -580,83 +580,83 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.948481466224689</v>
+        <v>2.319212356338451</v>
       </c>
       <c r="B8" t="n">
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.088085671519601</v>
+        <v>4.314470693724328</v>
       </c>
       <c r="B9" t="n">
         <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.931707105057411</v>
+        <v>0.00670368072890866</v>
       </c>
       <c r="B10" t="n">
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.44679180536363</v>
+        <v>0.001503795017856251</v>
       </c>
       <c r="B11" t="n">
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.04646588148922431</v>
+        <v>4.773893416052405e-06</v>
       </c>
       <c r="B12" t="n">
         <v>50</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sin_function</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -675,78 +675,192 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0008731229945761232</v>
+        <v>1.955234755549586e-06</v>
       </c>
       <c r="B13" t="n">
         <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>sin_function</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.130395827537381e-06</v>
+        <v>5.904850540680225e-06</v>
       </c>
       <c r="B14" t="n">
         <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>sin_function</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0002469331497536537</v>
+        <v>1.025988529460036e-05</v>
       </c>
       <c r="B15" t="n">
         <v>50</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>sin_function</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.00291953384902354</v>
+        <v>5.267290289766198</v>
       </c>
       <c r="B16" t="n">
         <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>sin_function</t>
+          <t>sin_function_derivative</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.04524089191546501</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.04318419958598617</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.04454542695988187</v>
+      </c>
+      <c r="B19" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.0454389939540908</v>
+      </c>
+      <c r="B20" t="n">
+        <v>50</v>
+      </c>
+      <c r="C20" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.04407839996606285</v>
+      </c>
+      <c r="B21" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.04444299689926944</v>
+      </c>
+      <c r="B22" t="n">
+        <v>50</v>
+      </c>
+      <c r="C22" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -797,17 +911,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.344318327248506e-05</v>
+        <v>1.255387608321521</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tanh_derivative</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -816,93 +930,93 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.141199419794874e-05</v>
+        <v>4.544093010491306</v>
       </c>
       <c r="B3" t="n">
         <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tanh_derivative</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.372135895297865e-06</v>
+        <v>11.30951232184828</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>tanh_derivative</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.241636836052361e-07</v>
+        <v>24.02989753894111</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>tanh_derivative</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.135377653348759e-08</v>
+        <v>29.03502341688723</v>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>tanh_derivative</t>
+          <t>relu_derivative</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.513428899502876</v>
+        <v>1.545222117009872e-18</v>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>relu_derivative</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -911,89 +1025,89 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.788018320593078</v>
+        <v>0.0001350296816194457</v>
       </c>
       <c r="B8" t="n">
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>relu_derivative</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.394534309940944</v>
+        <v>2.840158601477054e-06</v>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>relu_derivative</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.761254742528657</v>
+        <v>3.850406115746548e-05</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>relu_derivative</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.694691593160531</v>
+        <v>0.000187704757613047</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>relu_derivative</t>
+          <t>second_derivative_tanh</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.04394795784551345</v>
+        <v>0.0001397026331251833</v>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1006,13 +1120,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0008204436476658637</v>
+        <v>0.0458779610937748</v>
       </c>
       <c r="B13" t="n">
         <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1020,18 +1134,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.562896807897909e-05</v>
+        <v>0.07949780795965432</v>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1039,18 +1153,18 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.425704241958909e-06</v>
+        <v>0.1585435083547245</v>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1058,18 +1172,18 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0009301495947455032</v>
+        <v>0.3875012061359709</v>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1077,7 +1191,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1086,6 +1200,668 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t># of Collocation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t># of Neurons</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Activation Function</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R - Sample Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0001609179741573225</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.322231683911442e-05</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.401185123512605e-05</v>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8.137937436584307e-06</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.004571538412176273</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.666404110224098</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.471471035243104</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9903890348279939</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4.571411049764508</v>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4.41512500802507</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.04536394028354333</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sin_function</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.0009515045282937996</v>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sin_function</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.410246189454799e-05</v>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sin_function</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5.22118383334224e-06</v>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sin_function</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.448446166850225e-06</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sin_function</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t># of Collocation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t># of Neurons</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Activation Function</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R - Sample Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0002408569665823113</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>second_derivative_tanh</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.0001023365499352049</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>second_derivative_tanh</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.000271982095396795</v>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>second_derivative_tanh</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.630656396145662e-07</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>second_derivative_tanh</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.869643945440799e-10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>second_derivative_tanh</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.766084819329972</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>relu_derivative</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.82755557312514</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>relu_derivative</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.542041209686992</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>relu_derivative</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.629436520107218</v>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>relu_derivative</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3.300751485798793</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>relu_derivative</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.04881181050467538</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.0009014007996065177</v>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7.241877041541169e-06</v>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.0006180009983162938</v>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.0001443054984390688</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sin_function_derivative</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1128,7 +1904,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.922631676059132e-24</v>
+        <v>1.504878394453916e-25</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
@@ -1147,7 +1923,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.636449190359637e-27</v>
+        <v>8.868374296494615e-27</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
@@ -1166,7 +1942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.466492422805861e-26</v>
+        <v>3.530152550864028e-29</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
@@ -1185,7 +1961,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.617657893768837e-28</v>
+        <v>2.070759876205156e-29</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
@@ -1204,7 +1980,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.579790203735513e-24</v>
+        <v>5.537803554651503e-28</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -1223,7 +1999,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.075724787314569e-08</v>
+        <v>1.162459804304846e-11</v>
       </c>
       <c r="B7" t="n">
         <v>10</v>
@@ -1242,7 +2018,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.635567562458658e-09</v>
+        <v>6.594040178385753e-15</v>
       </c>
       <c r="B8" t="n">
         <v>10</v>
@@ -1261,7 +2037,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.612035748434319e-16</v>
+        <v>3.556269644954497e-23</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
@@ -1280,7 +2056,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.402645911072722e-14</v>
+        <v>5.249423952903003e-16</v>
       </c>
       <c r="B10" t="n">
         <v>10</v>
@@ -1299,7 +2075,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0003917217201842121</v>
+        <v>3.874194082452126e-06</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
@@ -1318,7 +2094,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0335403114211501</v>
+        <v>0.07417866326502903</v>
       </c>
       <c r="B12" t="n">
         <v>30</v>
@@ -1337,7 +2113,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01236324059221122</v>
+        <v>0.04215356446048286</v>
       </c>
       <c r="B13" t="n">
         <v>30</v>
@@ -1356,7 +2132,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1560296885367795</v>
+        <v>0.07101060873582025</v>
       </c>
       <c r="B14" t="n">
         <v>30</v>
@@ -1375,7 +2151,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2004743437785925</v>
+        <v>0.04671661053584641</v>
       </c>
       <c r="B15" t="n">
         <v>30</v>
@@ -1394,7 +2170,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.03520607952697336</v>
+        <v>0.1837730183538206</v>
       </c>
       <c r="B16" t="n">
         <v>30</v>
@@ -1413,7 +2189,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.06865548997781948</v>
+        <v>0.07265490470406048</v>
       </c>
       <c r="B17" t="n">
         <v>50</v>
@@ -1432,7 +2208,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.08370418954158734</v>
+        <v>0.03455302879593405</v>
       </c>
       <c r="B18" t="n">
         <v>50</v>
@@ -1451,7 +2227,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.03263125145589267</v>
+        <v>0.181071230906753</v>
       </c>
       <c r="B19" t="n">
         <v>50</v>
@@ -1470,7 +2246,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2420801580556367</v>
+        <v>0.06133703798976818</v>
       </c>
       <c r="B20" t="n">
         <v>50</v>
@@ -1489,7 +2265,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.06763742319334465</v>
+        <v>0.1139429578787836</v>
       </c>
       <c r="B21" t="n">
         <v>50</v>
@@ -1508,7 +2284,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.118580869716729</v>
+        <v>0.114433766250349</v>
       </c>
       <c r="B22" t="n">
         <v>100</v>
@@ -1527,7 +2303,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1005765636106845</v>
+        <v>0.06436486933631635</v>
       </c>
       <c r="B23" t="n">
         <v>100</v>
@@ -1546,7 +2322,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6575084606154878</v>
+        <v>0.09823185334222968</v>
       </c>
       <c r="B24" t="n">
         <v>100</v>
@@ -1565,7 +2341,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2103213855276483</v>
+        <v>0.169969609828184</v>
       </c>
       <c r="B25" t="n">
         <v>100</v>
@@ -1584,7 +2360,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9613098734622484</v>
+        <v>0.7101158891424211</v>
       </c>
       <c r="B26" t="n">
         <v>100</v>
@@ -1603,7 +2379,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.161944781736237e-25</v>
+        <v>5.184867185655622e-26</v>
       </c>
       <c r="B27" t="n">
         <v>5</v>
@@ -1622,7 +2398,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.523879686177768e-27</v>
+        <v>3.204826313550883e-26</v>
       </c>
       <c r="B28" t="n">
         <v>5</v>
@@ -1641,7 +2417,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.039086637363948e-28</v>
+        <v>3.830905770979539e-29</v>
       </c>
       <c r="B29" t="n">
         <v>5</v>
@@ -1660,7 +2436,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.209083794956154e-29</v>
+        <v>1.270066057405829e-28</v>
       </c>
       <c r="B30" t="n">
         <v>5</v>
@@ -1679,7 +2455,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.927184823972011e-29</v>
+        <v>9.318419442923202e-30</v>
       </c>
       <c r="B31" t="n">
         <v>5</v>
@@ -1698,7 +2474,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.915947081440953e-13</v>
+        <v>9.514889741964847e-14</v>
       </c>
       <c r="B32" t="n">
         <v>10</v>
@@ -1717,7 +2493,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.559266793551134e-18</v>
+        <v>1.055552141263564e-17</v>
       </c>
       <c r="B33" t="n">
         <v>10</v>
@@ -1736,7 +2512,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.110889022477555e-21</v>
+        <v>1.045226559086115e-23</v>
       </c>
       <c r="B34" t="n">
         <v>10</v>
@@ -1755,7 +2531,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.773171736040917e-21</v>
+        <v>3.963920921187051e-22</v>
       </c>
       <c r="B35" t="n">
         <v>10</v>
@@ -1774,7 +2550,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.59029230896672e-25</v>
+        <v>1.300376503354486e-22</v>
       </c>
       <c r="B36" t="n">
         <v>10</v>
@@ -1793,7 +2569,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.199519458810801e-05</v>
+        <v>0.001125304100266918</v>
       </c>
       <c r="B37" t="n">
         <v>30</v>
@@ -1812,7 +2588,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.362667782897529e-06</v>
+        <v>0.001176599870707111</v>
       </c>
       <c r="B38" t="n">
         <v>30</v>
@@ -1831,7 +2607,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.00170580334759483</v>
+        <v>1.068656648235547e-06</v>
       </c>
       <c r="B39" t="n">
         <v>30</v>
@@ -1850,7 +2626,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.878175071606998e-06</v>
+        <v>9.90902281932894e-09</v>
       </c>
       <c r="B40" t="n">
         <v>30</v>
@@ -1869,7 +2645,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.38450721298983e-05</v>
+        <v>2.615119648244406e-05</v>
       </c>
       <c r="B41" t="n">
         <v>30</v>
@@ -1888,7 +2664,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.007259427157614005</v>
+        <v>0.01025516336432993</v>
       </c>
       <c r="B42" t="n">
         <v>50</v>
@@ -1907,7 +2683,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0001627819688563556</v>
+        <v>4.310508649820971e-05</v>
       </c>
       <c r="B43" t="n">
         <v>50</v>
@@ -1926,7 +2702,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.989638353800798e-06</v>
+        <v>3.236751480293737e-06</v>
       </c>
       <c r="B44" t="n">
         <v>50</v>
@@ -1945,7 +2721,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.0001376061801743586</v>
+        <v>2.19948717693331e-05</v>
       </c>
       <c r="B45" t="n">
         <v>50</v>
@@ -1964,7 +2740,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.32336048202857e-05</v>
+        <v>4.182341427611918e-05</v>
       </c>
       <c r="B46" t="n">
         <v>50</v>
@@ -1983,7 +2759,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.158452677889474e-05</v>
+        <v>4.849544313751962e-05</v>
       </c>
       <c r="B47" t="n">
         <v>100</v>
@@ -2002,7 +2778,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.490329934784788e-05</v>
+        <v>4.347328607996358e-05</v>
       </c>
       <c r="B48" t="n">
         <v>100</v>
@@ -2021,7 +2797,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.148435311889973e-05</v>
+        <v>0.0001838309222505631</v>
       </c>
       <c r="B49" t="n">
         <v>100</v>
@@ -2040,7 +2816,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.0002315378654826779</v>
+        <v>0.002368965495889845</v>
       </c>
       <c r="B50" t="n">
         <v>100</v>
@@ -2059,7 +2835,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.0009190121393960993</v>
+        <v>9.802461973600511e-06</v>
       </c>
       <c r="B51" t="n">
         <v>100</v>
@@ -2078,7 +2854,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.813827879374672e-25</v>
+        <v>1.243233742575642e-24</v>
       </c>
       <c r="B52" t="n">
         <v>5</v>
@@ -2097,7 +2873,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.917425037752822e-28</v>
+        <v>3.930696675489996e-27</v>
       </c>
       <c r="B53" t="n">
         <v>5</v>
@@ -2116,7 +2892,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.503766100577553e-29</v>
+        <v>2.90399420734485e-29</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
@@ -2135,7 +2911,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.176899690512889e-30</v>
+        <v>4.269709649508726e-29</v>
       </c>
       <c r="B55" t="n">
         <v>5</v>
@@ -2154,7 +2930,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.804519320693065e-29</v>
+        <v>6.350330287029146e-29</v>
       </c>
       <c r="B56" t="n">
         <v>5</v>
@@ -2173,7 +2949,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.719600468916243e-15</v>
+        <v>5.160564598681424e-14</v>
       </c>
       <c r="B57" t="n">
         <v>10</v>
@@ -2192,7 +2968,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.025554398491933e-19</v>
+        <v>4.553891855386388e-19</v>
       </c>
       <c r="B58" t="n">
         <v>10</v>
@@ -2211,7 +2987,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.846589035570106e-24</v>
+        <v>6.700009252132141e-23</v>
       </c>
       <c r="B59" t="n">
         <v>10</v>
@@ -2230,7 +3006,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.935767394322625e-24</v>
+        <v>7.824693569516849e-24</v>
       </c>
       <c r="B60" t="n">
         <v>10</v>
@@ -2249,7 +3025,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.701344756753354e-20</v>
+        <v>1.065415817068868e-25</v>
       </c>
       <c r="B61" t="n">
         <v>10</v>
@@ -2268,7 +3044,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.000662722954162998</v>
+        <v>4.085866339241738e-05</v>
       </c>
       <c r="B62" t="n">
         <v>30</v>
@@ -2287,7 +3063,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0005440702902915915</v>
+        <v>0.0002474483022062411</v>
       </c>
       <c r="B63" t="n">
         <v>30</v>
@@ -2306,7 +3082,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.283433659055324e-06</v>
+        <v>9.448238840773902e-05</v>
       </c>
       <c r="B64" t="n">
         <v>30</v>
@@ -2325,7 +3101,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.504199670957392e-05</v>
+        <v>0.001367860647048138</v>
       </c>
       <c r="B65" t="n">
         <v>30</v>
@@ -2344,7 +3120,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.515326884287747e-07</v>
+        <v>8.840304426462898e-06</v>
       </c>
       <c r="B66" t="n">
         <v>30</v>
@@ -2363,7 +3139,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.056654791998189e-05</v>
+        <v>5.113013710294828e-06</v>
       </c>
       <c r="B67" t="n">
         <v>50</v>
@@ -2382,7 +3158,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.004152455045460516</v>
+        <v>0.001761199423236746</v>
       </c>
       <c r="B68" t="n">
         <v>50</v>
@@ -2401,7 +3177,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.788953301699299e-07</v>
+        <v>0.003133602727810405</v>
       </c>
       <c r="B69" t="n">
         <v>50</v>
@@ -2420,7 +3196,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.555994495259335e-06</v>
+        <v>1.533764357992199e-06</v>
       </c>
       <c r="B70" t="n">
         <v>50</v>
@@ -2439,7 +3215,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.895800544753751e-05</v>
+        <v>5.174066051971508e-08</v>
       </c>
       <c r="B71" t="n">
         <v>50</v>
@@ -2458,7 +3234,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.69666860887955e-05</v>
+        <v>3.611932232947537e-05</v>
       </c>
       <c r="B72" t="n">
         <v>100</v>
@@ -2477,7 +3253,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>8.288849196091322e-08</v>
+        <v>2.436497068477397e-05</v>
       </c>
       <c r="B73" t="n">
         <v>100</v>
@@ -2496,7 +3272,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9.452050409033707e-05</v>
+        <v>2.549534536085492e-06</v>
       </c>
       <c r="B74" t="n">
         <v>100</v>
@@ -2515,7 +3291,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.913471900302284e-05</v>
+        <v>1.10656030875505e-05</v>
       </c>
       <c r="B75" t="n">
         <v>100</v>
@@ -2534,7 +3310,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.01650145557909984</v>
+        <v>4.765857720859668e-05</v>
       </c>
       <c r="B76" t="n">
         <v>100</v>
@@ -2553,7 +3329,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.315917670070113e-25</v>
+        <v>1.779039113454426e-25</v>
       </c>
       <c r="B77" t="n">
         <v>5</v>
@@ -2572,7 +3348,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3.317653144520118e-28</v>
+        <v>5.952054137505687e-27</v>
       </c>
       <c r="B78" t="n">
         <v>5</v>
@@ -2591,7 +3367,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.264779268851095e-29</v>
+        <v>3.865418435582958e-29</v>
       </c>
       <c r="B79" t="n">
         <v>5</v>
@@ -2610,7 +3386,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.824240843323589e-30</v>
+        <v>3.160374001541679e-29</v>
       </c>
       <c r="B80" t="n">
         <v>5</v>
@@ -2629,7 +3405,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9.762153702110021e-30</v>
+        <v>1.627025617018337e-30</v>
       </c>
       <c r="B81" t="n">
         <v>5</v>
@@ -2648,7 +3424,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>8.843032618292102e-14</v>
+        <v>3.752590999911362e-15</v>
       </c>
       <c r="B82" t="n">
         <v>10</v>
@@ -2667,7 +3443,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.055989846992533e-19</v>
+        <v>1.56920329760177e-19</v>
       </c>
       <c r="B83" t="n">
         <v>10</v>
@@ -2686,7 +3462,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.422725354641936e-24</v>
+        <v>3.755702576201074e-24</v>
       </c>
       <c r="B84" t="n">
         <v>10</v>
@@ -2705,7 +3481,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.399242147884659e-23</v>
+        <v>4.6654023781752e-24</v>
       </c>
       <c r="B85" t="n">
         <v>10</v>
@@ -2724,7 +3500,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4.100681902461218e-25</v>
+        <v>9.15916814768171e-28</v>
       </c>
       <c r="B86" t="n">
         <v>10</v>
@@ -2743,7 +3519,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.795420268495157e-05</v>
+        <v>7.659192189261264e-05</v>
       </c>
       <c r="B87" t="n">
         <v>30</v>
@@ -2762,7 +3538,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.0001022167111001078</v>
+        <v>0.003048095187189875</v>
       </c>
       <c r="B88" t="n">
         <v>30</v>
@@ -2781,7 +3557,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.136239619325733e-05</v>
+        <v>2.550013938290902e-05</v>
       </c>
       <c r="B89" t="n">
         <v>30</v>
@@ -2800,7 +3576,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.00103559629647169</v>
+        <v>3.262156357830329e-05</v>
       </c>
       <c r="B90" t="n">
         <v>30</v>
@@ -2819,7 +3595,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4.705673134798187e-05</v>
+        <v>0.0005486574746193845</v>
       </c>
       <c r="B91" t="n">
         <v>30</v>
@@ -2838,7 +3614,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.0002716945294840982</v>
+        <v>8.320265999029991e-06</v>
       </c>
       <c r="B92" t="n">
         <v>50</v>
@@ -2857,7 +3633,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.068594572841349e-05</v>
+        <v>5.66496088746185e-06</v>
       </c>
       <c r="B93" t="n">
         <v>50</v>
@@ -2876,7 +3652,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.149426322632423e-06</v>
+        <v>0.004852738939192514</v>
       </c>
       <c r="B94" t="n">
         <v>50</v>
@@ -2895,7 +3671,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.002208003155862709</v>
+        <v>4.798705265747731e-05</v>
       </c>
       <c r="B95" t="n">
         <v>50</v>
@@ -2914,7 +3690,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9.531000008433508e-05</v>
+        <v>4.360810299686288e-07</v>
       </c>
       <c r="B96" t="n">
         <v>50</v>
@@ -2933,7 +3709,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.845086098179141e-05</v>
+        <v>0.002449837160305326</v>
       </c>
       <c r="B97" t="n">
         <v>100</v>
@@ -2952,7 +3728,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.599148097611722e-05</v>
+        <v>0.0003003570877861682</v>
       </c>
       <c r="B98" t="n">
         <v>100</v>
@@ -2971,7 +3747,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.602550569891069e-06</v>
+        <v>7.604182620611306e-05</v>
       </c>
       <c r="B99" t="n">
         <v>100</v>
@@ -2990,7 +3766,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.0001969363656935204</v>
+        <v>4.021533164043169e-05</v>
       </c>
       <c r="B100" t="n">
         <v>100</v>
@@ -3009,7 +3785,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.16261027921308e-05</v>
+        <v>0.0007049476830021961</v>
       </c>
       <c r="B101" t="n">
         <v>100</v>
@@ -3028,7 +3804,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>6.219625895795338e-27</v>
+        <v>1.291365301846796e-26</v>
       </c>
       <c r="B102" t="n">
         <v>5</v>
@@ -3047,7 +3823,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3.97437984811661e-28</v>
+        <v>2.77333911991762e-28</v>
       </c>
       <c r="B103" t="n">
         <v>5</v>
@@ -3066,7 +3842,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.690134489436018e-28</v>
+        <v>1.306550874272301e-29</v>
       </c>
       <c r="B104" t="n">
         <v>5</v>
@@ -3085,7 +3861,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.712576635196387e-29</v>
+        <v>4.338734978715565e-30</v>
       </c>
       <c r="B105" t="n">
         <v>5</v>
@@ -3104,7 +3880,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.60237371373018e-29</v>
+        <v>1.168500215858624e-29</v>
       </c>
       <c r="B106" t="n">
         <v>5</v>
@@ -3123,7 +3899,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.331844292570373e-16</v>
+        <v>3.956786812479087e-15</v>
       </c>
       <c r="B107" t="n">
         <v>10</v>
@@ -3142,7 +3918,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.152794059725052e-20</v>
+        <v>5.732113237229377e-20</v>
       </c>
       <c r="B108" t="n">
         <v>10</v>
@@ -3161,7 +3937,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>7.632298283342496e-25</v>
+        <v>9.119865125231338e-25</v>
       </c>
       <c r="B109" t="n">
         <v>10</v>
@@ -3180,7 +3956,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.91092137262734e-25</v>
+        <v>2.010520485330217e-25</v>
       </c>
       <c r="B110" t="n">
         <v>10</v>
@@ -3199,7 +3975,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.564882625712967e-27</v>
+        <v>1.534334460654868e-28</v>
       </c>
       <c r="B111" t="n">
         <v>10</v>
@@ -3218,7 +3994,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>7.158270539975037e-07</v>
+        <v>4.236783323610411e-06</v>
       </c>
       <c r="B112" t="n">
         <v>30</v>
@@ -3237,7 +4013,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.0001572067180101744</v>
+        <v>0.000268545769852124</v>
       </c>
       <c r="B113" t="n">
         <v>30</v>
@@ -3256,7 +4032,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.0001397292486759242</v>
+        <v>9.09674159293766e-07</v>
       </c>
       <c r="B114" t="n">
         <v>30</v>
@@ -3275,7 +4051,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.73980522387089e-05</v>
+        <v>0.001865206112900203</v>
       </c>
       <c r="B115" t="n">
         <v>30</v>
@@ -3294,7 +4070,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>7.091735953097427e-12</v>
+        <v>3.036412397830077e-16</v>
       </c>
       <c r="B116" t="n">
         <v>30</v>
@@ -3313,7 +4089,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4.895093337951292e-05</v>
+        <v>0.0006225001720836321</v>
       </c>
       <c r="B117" t="n">
         <v>50</v>
@@ -3332,7 +4108,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.219481552091306e-06</v>
+        <v>1.401650609708445e-05</v>
       </c>
       <c r="B118" t="n">
         <v>50</v>
@@ -3351,7 +4127,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.851426798571768e-05</v>
+        <v>1.460986146958558e-06</v>
       </c>
       <c r="B119" t="n">
         <v>50</v>
@@ -3370,7 +4146,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.003838325934252316</v>
+        <v>1.053002371844559e-05</v>
       </c>
       <c r="B120" t="n">
         <v>50</v>
@@ -3389,7 +4165,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.462705396785357e-07</v>
+        <v>0.0001706203831651996</v>
       </c>
       <c r="B121" t="n">
         <v>50</v>
@@ -3408,7 +4184,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.59427401435048e-05</v>
+        <v>0.0004504992189639775</v>
       </c>
       <c r="B122" t="n">
         <v>100</v>
@@ -3427,7 +4203,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.0001963641430851454</v>
+        <v>3.133237091290228e-05</v>
       </c>
       <c r="B123" t="n">
         <v>100</v>
@@ -3446,7 +4222,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.0001254783578512471</v>
+        <v>0.0002464892962362044</v>
       </c>
       <c r="B124" t="n">
         <v>100</v>
@@ -3465,7 +4241,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.12571610979996e-05</v>
+        <v>0.00292865776711314</v>
       </c>
       <c r="B125" t="n">
         <v>100</v>
@@ -3484,7 +4260,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.542168835168784e-05</v>
+        <v>0.001034456240758257</v>
       </c>
       <c r="B126" t="n">
         <v>100</v>
@@ -3503,7 +4279,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.5641273884572394</v>
+        <v>0.360224086728067</v>
       </c>
       <c r="B127" t="n">
         <v>5</v>
@@ -3522,7 +4298,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.365715442163877e-29</v>
+        <v>5.995342879679691e-29</v>
       </c>
       <c r="B128" t="n">
         <v>5</v>
@@ -3541,7 +4317,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.05786445519686553</v>
+        <v>0.3999001190030863</v>
       </c>
       <c r="B129" t="n">
         <v>5</v>
@@ -3560,7 +4336,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8.874685183736384e-30</v>
+        <v>0.7887432022288979</v>
       </c>
       <c r="B130" t="n">
         <v>5</v>
@@ -3579,7 +4355,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.228532057249358e-28</v>
+        <v>0.004939747542775315</v>
       </c>
       <c r="B131" t="n">
         <v>5</v>
@@ -3598,7 +4374,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.8594123801416935</v>
+        <v>0.8995333727338629</v>
       </c>
       <c r="B132" t="n">
         <v>10</v>
@@ -3617,7 +4393,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.180166533260304</v>
+        <v>0.8615115939869354</v>
       </c>
       <c r="B133" t="n">
         <v>10</v>
@@ -3636,7 +4412,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.172655947531981</v>
+        <v>1.14795018950261</v>
       </c>
       <c r="B134" t="n">
         <v>10</v>
@@ -3655,7 +4431,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.3275193703823291</v>
+        <v>0.8610978737825293</v>
       </c>
       <c r="B135" t="n">
         <v>10</v>
@@ -3674,7 +4450,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.6997102411615646</v>
+        <v>1.325039614658657</v>
       </c>
       <c r="B136" t="n">
         <v>10</v>
@@ -3693,7 +4469,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3.595760743467373</v>
+        <v>2.835549480403454</v>
       </c>
       <c r="B137" t="n">
         <v>30</v>
@@ -3712,7 +4488,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.936432589620581</v>
+        <v>3.626289006556105</v>
       </c>
       <c r="B138" t="n">
         <v>30</v>
@@ -3731,7 +4507,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.992024100874744</v>
+        <v>2.721306926873751</v>
       </c>
       <c r="B139" t="n">
         <v>30</v>
@@ -3750,7 +4526,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.592882841502457</v>
+        <v>78.99829265733294</v>
       </c>
       <c r="B140" t="n">
         <v>30</v>
@@ -3769,7 +4545,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3.095749529044202</v>
+        <v>2.655790297923866</v>
       </c>
       <c r="B141" t="n">
         <v>30</v>
@@ -3788,7 +4564,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.97435968199161</v>
+        <v>4.622152915534932</v>
       </c>
       <c r="B142" t="n">
         <v>50</v>
@@ -3807,7 +4583,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5.560333294976807</v>
+        <v>5.7922951713577</v>
       </c>
       <c r="B143" t="n">
         <v>50</v>
@@ -3826,7 +4602,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>4.801096219785138</v>
+        <v>5.953806026885173</v>
       </c>
       <c r="B144" t="n">
         <v>50</v>
@@ -3845,7 +4621,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5.426558062861202</v>
+        <v>3.394998776982638</v>
       </c>
       <c r="B145" t="n">
         <v>50</v>
@@ -3864,7 +4640,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5.760825541282141</v>
+        <v>3.931010935304503</v>
       </c>
       <c r="B146" t="n">
         <v>50</v>
@@ -3883,7 +4659,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>7.884741070232963</v>
+        <v>11.00537878785361</v>
       </c>
       <c r="B147" t="n">
         <v>100</v>
@@ -3902,7 +4678,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9.906257954946016</v>
+        <v>11.31919790159858</v>
       </c>
       <c r="B148" t="n">
         <v>100</v>
@@ -3921,7 +4697,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5.936562977440512</v>
+        <v>11.14144907509464</v>
       </c>
       <c r="B149" t="n">
         <v>100</v>
@@ -3940,7 +4716,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9.785453883800718</v>
+        <v>11.7765764350638</v>
       </c>
       <c r="B150" t="n">
         <v>100</v>
@@ -3959,7 +4735,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>11.01364202796029</v>
+        <v>9.069188419925784</v>
       </c>
       <c r="B151" t="n">
         <v>100</v>
@@ -3978,7 +4754,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.247701377246229e-25</v>
+        <v>1.108349571835521e-28</v>
       </c>
       <c r="B152" t="n">
         <v>5</v>
@@ -3997,7 +4773,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.647240177714625e-28</v>
+        <v>1.917918075818585e-29</v>
       </c>
       <c r="B153" t="n">
         <v>5</v>
@@ -4016,7 +4792,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.3731991664318529</v>
+        <v>6.651083507144655e-29</v>
       </c>
       <c r="B154" t="n">
         <v>5</v>
@@ -4035,7 +4811,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.232595164407831e-30</v>
+        <v>2.15950672804252e-28</v>
       </c>
       <c r="B155" t="n">
         <v>5</v>
@@ -4054,7 +4830,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3.258981614694305e-29</v>
+        <v>0.3602240867280663</v>
       </c>
       <c r="B156" t="n">
         <v>5</v>
@@ -4073,7 +4849,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.0007424528204337106</v>
+        <v>0.8490058375248782</v>
       </c>
       <c r="B157" t="n">
         <v>10</v>
@@ -4092,7 +4868,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.5125481334945334</v>
+        <v>0.5447814635279229</v>
       </c>
       <c r="B158" t="n">
         <v>10</v>
@@ -4111,7 +4887,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.2288824650429145</v>
+        <v>0.860622010407888</v>
       </c>
       <c r="B159" t="n">
         <v>10</v>
@@ -4130,7 +4906,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.6717339950720984</v>
+        <v>1.398630663434223e-26</v>
       </c>
       <c r="B160" t="n">
         <v>10</v>
@@ -4149,7 +4925,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.5742498110054967</v>
+        <v>0.6270081667492922</v>
       </c>
       <c r="B161" t="n">
         <v>10</v>
@@ -4168,7 +4944,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.122728138089494</v>
+        <v>2.686422842176834</v>
       </c>
       <c r="B162" t="n">
         <v>30</v>
@@ -4187,7 +4963,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.737752390594966</v>
+        <v>2.098106980335691</v>
       </c>
       <c r="B163" t="n">
         <v>30</v>
@@ -4206,7 +4982,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.169136119492949</v>
+        <v>2.103076032780207</v>
       </c>
       <c r="B164" t="n">
         <v>30</v>
@@ -4225,7 +5001,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.5379027685877</v>
+        <v>1.34714655941489</v>
       </c>
       <c r="B165" t="n">
         <v>30</v>
@@ -4244,7 +5020,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.7268229044447413</v>
+        <v>2.360840792344951</v>
       </c>
       <c r="B166" t="n">
         <v>30</v>
@@ -4263,7 +5039,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>3.325611732513996</v>
+        <v>5.560266622332122</v>
       </c>
       <c r="B167" t="n">
         <v>50</v>
@@ -4282,7 +5058,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>5.95101272828586</v>
+        <v>1.185883585783473</v>
       </c>
       <c r="B168" t="n">
         <v>50</v>
@@ -4301,7 +5077,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>3.761651138351598</v>
+        <v>1.575729259761766</v>
       </c>
       <c r="B169" t="n">
         <v>50</v>
@@ -4320,7 +5096,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>4.085828753081742</v>
+        <v>4.652532741451555</v>
       </c>
       <c r="B170" t="n">
         <v>50</v>
@@ -4339,7 +5115,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>3.151018808483651</v>
+        <v>4.500649265158946</v>
       </c>
       <c r="B171" t="n">
         <v>50</v>
@@ -4358,7 +5134,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>7.029971098027052</v>
+        <v>9.422677491291854</v>
       </c>
       <c r="B172" t="n">
         <v>100</v>
@@ -4377,7 +5153,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>4.395095293927219</v>
+        <v>11.45664247197371</v>
       </c>
       <c r="B173" t="n">
         <v>100</v>
@@ -4396,7 +5172,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>8.253343062262594</v>
+        <v>6.970508417360576</v>
       </c>
       <c r="B174" t="n">
         <v>100</v>
@@ -4415,7 +5191,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10.43737753969891</v>
+        <v>6.18632661399803</v>
       </c>
       <c r="B175" t="n">
         <v>100</v>
@@ -4434,7 +5210,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>3.667501907333521</v>
+        <v>0.7262911940285677</v>
       </c>
       <c r="B176" t="n">
         <v>100</v>
@@ -4453,7 +5229,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.950655803385257e-27</v>
+        <v>3.81069121028325e-28</v>
       </c>
       <c r="B177" t="n">
         <v>5</v>
@@ -4472,7 +5248,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.694571832027886e-28</v>
+        <v>3.692855112565862e-29</v>
       </c>
       <c r="B178" t="n">
         <v>5</v>
@@ -4491,7 +5267,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>8.322482550081676e-29</v>
+        <v>7.242729186060415e-29</v>
       </c>
       <c r="B179" t="n">
         <v>5</v>
@@ -4510,7 +5286,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.93763959844911e-29</v>
+        <v>3.673133589935337e-29</v>
       </c>
       <c r="B180" t="n">
         <v>5</v>
@@ -4529,7 +5305,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>4.864895341736665e-25</v>
+        <v>1.824319729414112e-26</v>
       </c>
       <c r="B181" t="n">
         <v>5</v>
@@ -4548,7 +5324,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.5074160732707375</v>
+        <v>0.1334738034097775</v>
       </c>
       <c r="B182" t="n">
         <v>10</v>
@@ -4567,7 +5343,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.02042938521253922</v>
+        <v>9.33222450876457e-28</v>
       </c>
       <c r="B183" t="n">
         <v>10</v>
@@ -4586,7 +5362,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.2994915890630239</v>
+        <v>0.1325293588861098</v>
       </c>
       <c r="B184" t="n">
         <v>10</v>
@@ -4605,7 +5381,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.3501583466491949</v>
+        <v>0.1727790117512482</v>
       </c>
       <c r="B185" t="n">
         <v>10</v>
@@ -4624,7 +5400,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.4318386438796386</v>
+        <v>0.7169258945950092</v>
       </c>
       <c r="B186" t="n">
         <v>10</v>
@@ -4643,7 +5419,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.323816984242405</v>
+        <v>2.695606272100775</v>
       </c>
       <c r="B187" t="n">
         <v>30</v>
@@ -4662,7 +5438,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.312858791168766</v>
+        <v>0.6820685488900098</v>
       </c>
       <c r="B188" t="n">
         <v>30</v>
@@ -4681,7 +5457,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.4449870504442605</v>
+        <v>0.3808975761621583</v>
       </c>
       <c r="B189" t="n">
         <v>30</v>
@@ -4700,7 +5476,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.2337105907140887</v>
+        <v>1.450661484238742</v>
       </c>
       <c r="B190" t="n">
         <v>30</v>
@@ -4719,7 +5495,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.698092893725476</v>
+        <v>1.173520949278194</v>
       </c>
       <c r="B191" t="n">
         <v>30</v>
@@ -4738,7 +5514,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5.804533774011333</v>
+        <v>2.896289250026477</v>
       </c>
       <c r="B192" t="n">
         <v>50</v>
@@ -4757,7 +5533,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.1381084408005858</v>
+        <v>2.956556436335519</v>
       </c>
       <c r="B193" t="n">
         <v>50</v>
@@ -4776,7 +5552,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.2677216220626354</v>
+        <v>0.6597864431035351</v>
       </c>
       <c r="B194" t="n">
         <v>50</v>
@@ -4795,7 +5571,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.957484979502999</v>
+        <v>4.524737370781016</v>
       </c>
       <c r="B195" t="n">
         <v>50</v>
@@ -4814,7 +5590,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>4.453425921740958</v>
+        <v>1.67026060888261</v>
       </c>
       <c r="B196" t="n">
         <v>50</v>
@@ -4833,7 +5609,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>3.819036490575454</v>
+        <v>3.696591215639618</v>
       </c>
       <c r="B197" t="n">
         <v>100</v>
@@ -4852,7 +5628,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.220789230829265</v>
+        <v>2.322945436655536</v>
       </c>
       <c r="B198" t="n">
         <v>100</v>
@@ -4871,7 +5647,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>7.912292685183811</v>
+        <v>8.78318902491497</v>
       </c>
       <c r="B199" t="n">
         <v>100</v>
@@ -4890,7 +5666,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.573370958927215</v>
+        <v>8.580498529030598</v>
       </c>
       <c r="B200" t="n">
         <v>100</v>
@@ -4909,7 +5685,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9316515575609611</v>
+        <v>8.081388161951464</v>
       </c>
       <c r="B201" t="n">
         <v>100</v>
@@ -4928,7 +5704,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>9.959368928415274e-30</v>
+        <v>5.817849176004962e-30</v>
       </c>
       <c r="B202" t="n">
         <v>5</v>
@@ -4947,7 +5723,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.30162049361467e-29</v>
+        <v>2.627892890517496e-29</v>
       </c>
       <c r="B203" t="n">
         <v>5</v>
@@ -4966,7 +5742,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>6.360191048344408e-30</v>
+        <v>2.27290548316804e-29</v>
       </c>
       <c r="B204" t="n">
         <v>5</v>
@@ -4985,7 +5761,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>4.190823558986625e-30</v>
+        <v>1.765076275432014e-29</v>
       </c>
       <c r="B205" t="n">
         <v>5</v>
@@ -5004,7 +5780,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>8.135128085091684e-30</v>
+        <v>5.630494711014973e-29</v>
       </c>
       <c r="B206" t="n">
         <v>5</v>
@@ -5023,7 +5799,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.09666237394061257</v>
+        <v>3.704688026144177e-28</v>
       </c>
       <c r="B207" t="n">
         <v>10</v>
@@ -5042,7 +5818,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1.16210847037407e-25</v>
+        <v>3.978274848836139e-27</v>
       </c>
       <c r="B208" t="n">
         <v>10</v>
@@ -5061,7 +5837,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>4.957453377822377e-26</v>
+        <v>2.827257762789476e-26</v>
       </c>
       <c r="B209" t="n">
         <v>10</v>
@@ -5080,7 +5856,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.2629357110656431</v>
+        <v>7.141360559739513e-27</v>
       </c>
       <c r="B210" t="n">
         <v>10</v>
@@ -5099,7 +5875,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.2982366796642599</v>
+        <v>7.535100759057952e-28</v>
       </c>
       <c r="B211" t="n">
         <v>10</v>
@@ -5118,7 +5894,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.1633948813434515</v>
+        <v>0.2513865138531102</v>
       </c>
       <c r="B212" t="n">
         <v>30</v>
@@ -5137,7 +5913,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.221922772175264</v>
+        <v>1.421579985707792</v>
       </c>
       <c r="B213" t="n">
         <v>30</v>
@@ -5156,7 +5932,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.1001027015346212</v>
+        <v>0.8554042412566625</v>
       </c>
       <c r="B214" t="n">
         <v>30</v>
@@ -5175,7 +5951,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.5970119474271036</v>
+        <v>0.3545294002868548</v>
       </c>
       <c r="B215" t="n">
         <v>30</v>
@@ -5194,7 +5970,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.06026513233679871</v>
+        <v>1.429128929052336</v>
       </c>
       <c r="B216" t="n">
         <v>30</v>
@@ -5213,7 +5989,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.1057733668055149</v>
+        <v>3.157597473618982</v>
       </c>
       <c r="B217" t="n">
         <v>50</v>
@@ -5232,7 +6008,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.816544993854051</v>
+        <v>0.7657938566328008</v>
       </c>
       <c r="B218" t="n">
         <v>50</v>
@@ -5251,7 +6027,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.2991982321365225</v>
+        <v>0.2199092325940223</v>
       </c>
       <c r="B219" t="n">
         <v>50</v>
@@ -5270,7 +6046,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.1753807031436348</v>
+        <v>0.1726279935385078</v>
       </c>
       <c r="B220" t="n">
         <v>50</v>
@@ -5289,7 +6065,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.1861416927978694</v>
+        <v>0.4855640698791343</v>
       </c>
       <c r="B221" t="n">
         <v>50</v>
@@ -5308,7 +6084,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.8444641128832665</v>
+        <v>0.0991480245472382</v>
       </c>
       <c r="B222" t="n">
         <v>100</v>
@@ -5327,7 +6103,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1.412888359877015</v>
+        <v>0.2443418129498091</v>
       </c>
       <c r="B223" t="n">
         <v>100</v>
@@ -5346,7 +6122,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>4.007595587515951</v>
+        <v>0.2465768559078419</v>
       </c>
       <c r="B224" t="n">
         <v>100</v>
@@ -5365,7 +6141,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3.317344116468318</v>
+        <v>0.1884229947952432</v>
       </c>
       <c r="B225" t="n">
         <v>100</v>
@@ -5384,7 +6160,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.209831311548537</v>
+        <v>1.493837309847362</v>
       </c>
       <c r="B226" t="n">
         <v>100</v>
@@ -5403,7 +6179,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.952430740422004e-29</v>
+        <v>1.173430596516255e-29</v>
       </c>
       <c r="B227" t="n">
         <v>5</v>
@@ -5422,7 +6198,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>6.532754371361505e-29</v>
+        <v>3.638620925331916e-29</v>
       </c>
       <c r="B228" t="n">
         <v>5</v>
@@ -5441,7 +6217,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>6.133393538093367e-29</v>
+        <v>1.365715442163877e-29</v>
       </c>
       <c r="B229" t="n">
         <v>5</v>
@@ -5460,7 +6236,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1.484044577947028e-29</v>
+        <v>4.388038785291877e-30</v>
       </c>
       <c r="B230" t="n">
         <v>5</v>
@@ -5479,7 +6255,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>5.157178167882364e-29</v>
+        <v>2.465190328815662e-31</v>
       </c>
       <c r="B231" t="n">
         <v>5</v>
@@ -5498,7 +6274,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.467162481078714e-28</v>
+        <v>3.523250017943344e-28</v>
       </c>
       <c r="B232" t="n">
         <v>10</v>
@@ -5517,7 +6293,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>8.098643268225214e-28</v>
+        <v>4.502472920355502e-27</v>
       </c>
       <c r="B233" t="n">
         <v>10</v>
@@ -5536,7 +6312,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>7.425646308458536e-28</v>
+        <v>6.406043588460379e-28</v>
       </c>
       <c r="B234" t="n">
         <v>10</v>
@@ -5555,7 +6331,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1.780311151664094e-27</v>
+        <v>1.658777268453483e-27</v>
       </c>
       <c r="B235" t="n">
         <v>10</v>
@@ -5574,7 +6350,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>7.772252068690019e-28</v>
+        <v>4.762747715271859e-29</v>
       </c>
       <c r="B236" t="n">
         <v>10</v>
@@ -5593,7 +6369,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.01986742056883903</v>
+        <v>0.009295747888394865</v>
       </c>
       <c r="B237" t="n">
         <v>30</v>
@@ -5612,7 +6388,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.05646242110202505</v>
+        <v>0.1413130019177481</v>
       </c>
       <c r="B238" t="n">
         <v>30</v>
@@ -5631,7 +6407,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.009640504718994088</v>
+        <v>0.02294493416036477</v>
       </c>
       <c r="B239" t="n">
         <v>30</v>
@@ -5650,7 +6426,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.1776385029176102</v>
+        <v>0.0219373468642155</v>
       </c>
       <c r="B240" t="n">
         <v>30</v>
@@ -5669,7 +6445,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.01509760598351289</v>
+        <v>0.03152132113761001</v>
       </c>
       <c r="B241" t="n">
         <v>30</v>
@@ -5688,7 +6464,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.04658377410208846</v>
+        <v>0.08872962080748693</v>
       </c>
       <c r="B242" t="n">
         <v>50</v>
@@ -5707,7 +6483,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.008218692772324733</v>
+        <v>0.2487424815013426</v>
       </c>
       <c r="B243" t="n">
         <v>50</v>
@@ -5726,7 +6502,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.06336591638340242</v>
+        <v>0.1952164947031599</v>
       </c>
       <c r="B244" t="n">
         <v>50</v>
@@ -5745,7 +6521,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.004109983126871988</v>
+        <v>0.3126451198822481</v>
       </c>
       <c r="B245" t="n">
         <v>50</v>
@@ -5764,7 +6540,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.1403162375129243</v>
+        <v>0.3920602191910794</v>
       </c>
       <c r="B246" t="n">
         <v>50</v>
@@ -5783,7 +6559,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.625024402157178</v>
+        <v>0.1519159371891002</v>
       </c>
       <c r="B247" t="n">
         <v>100</v>
@@ -5802,7 +6578,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.9621080209357763</v>
+        <v>0.03965518865235727</v>
       </c>
       <c r="B248" t="n">
         <v>100</v>
@@ -5821,7 +6597,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.03846005068914008</v>
+        <v>0.6745134063853617</v>
       </c>
       <c r="B249" t="n">
         <v>100</v>
@@ -5840,7 +6616,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.03755477395313653</v>
+        <v>0.07271090427744832</v>
       </c>
       <c r="B250" t="n">
         <v>100</v>
@@ -5859,7 +6635,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.04139204292100741</v>
+        <v>0.07567345827960376</v>
       </c>
       <c r="B251" t="n">
         <v>100</v>
@@ -5878,7 +6654,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>5.006482069157996e-24</v>
+        <v>2.118776877095655e-22</v>
       </c>
       <c r="B252" t="n">
         <v>5</v>
@@ -5897,7 +6673,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>4.353999595003773e-23</v>
+        <v>1.460654852107225e-25</v>
       </c>
       <c r="B253" t="n">
         <v>5</v>
@@ -5916,7 +6692,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>4.086299489044841e-28</v>
+        <v>1.858714064881748e-26</v>
       </c>
       <c r="B254" t="n">
         <v>5</v>
@@ -5935,7 +6711,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.9434372526059e-29</v>
+        <v>1.788742102588644e-28</v>
       </c>
       <c r="B255" t="n">
         <v>5</v>
@@ -5954,7 +6730,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1.503766100577553e-29</v>
+        <v>2.238392818564621e-29</v>
       </c>
       <c r="B256" t="n">
         <v>5</v>
@@ -5973,7 +6749,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.005752632601564534</v>
+        <v>0.000330529160769151</v>
       </c>
       <c r="B257" t="n">
         <v>10</v>
@@ -5992,7 +6768,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.086523971033448e-06</v>
+        <v>9.603548390215732e-07</v>
       </c>
       <c r="B258" t="n">
         <v>10</v>
@@ -6011,7 +6787,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>5.621993880005377e-14</v>
+        <v>5.40768967526634e-16</v>
       </c>
       <c r="B259" t="n">
         <v>10</v>
@@ -6030,7 +6806,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>4.252318717819251e-13</v>
+        <v>6.394956816863438e-15</v>
       </c>
       <c r="B260" t="n">
         <v>10</v>
@@ -6049,7 +6825,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1.081298940077191e-19</v>
+        <v>4.899898735895126e-19</v>
       </c>
       <c r="B261" t="n">
         <v>10</v>
@@ -6068,7 +6844,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.2212071139303247</v>
+        <v>0.1322749699806689</v>
       </c>
       <c r="B262" t="n">
         <v>30</v>
@@ -6087,7 +6863,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.02693119430406305</v>
+        <v>0.03832229701937352</v>
       </c>
       <c r="B263" t="n">
         <v>30</v>
@@ -6106,7 +6882,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.03349148480665085</v>
+        <v>0.02545397214128123</v>
       </c>
       <c r="B264" t="n">
         <v>30</v>
@@ -6125,7 +6901,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.01023813580022695</v>
+        <v>0.03218477190283422</v>
       </c>
       <c r="B265" t="n">
         <v>30</v>
@@ -6144,7 +6920,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.0490860391574246</v>
+        <v>0.01626561364260316</v>
       </c>
       <c r="B266" t="n">
         <v>30</v>
@@ -6163,7 +6939,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.04835784013525281</v>
+        <v>0.04494981808806173</v>
       </c>
       <c r="B267" t="n">
         <v>50</v>
@@ -6182,7 +6958,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.03852129611690992</v>
+        <v>0.03339395050208172</v>
       </c>
       <c r="B268" t="n">
         <v>50</v>
@@ -6201,7 +6977,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.03207995357658257</v>
+        <v>0.04436777579164112</v>
       </c>
       <c r="B269" t="n">
         <v>50</v>
@@ -6220,7 +6996,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.05391161690899707</v>
+        <v>0.03175483790125514</v>
       </c>
       <c r="B270" t="n">
         <v>50</v>
@@ -6239,7 +7015,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.03237550517986847</v>
+        <v>0.01774006531694415</v>
       </c>
       <c r="B271" t="n">
         <v>50</v>
@@ -6258,7 +7034,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.09593378376110097</v>
+        <v>0.08796605047333968</v>
       </c>
       <c r="B272" t="n">
         <v>100</v>
@@ -6277,7 +7053,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.077842273435464</v>
+        <v>0.08030230983045797</v>
       </c>
       <c r="B273" t="n">
         <v>100</v>
@@ -6296,7 +7072,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.1166805363000549</v>
+        <v>0.06783286034078738</v>
       </c>
       <c r="B274" t="n">
         <v>100</v>
@@ -6315,7 +7091,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.07577491832824343</v>
+        <v>0.07037046468885484</v>
       </c>
       <c r="B275" t="n">
         <v>100</v>
@@ -6334,7 +7110,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.009356751838172849</v>
+        <v>0.02048297677707795</v>
       </c>
       <c r="B276" t="n">
         <v>100</v>
@@ -6353,7 +7129,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>7.921409888649208e-25</v>
+        <v>1.262111657354124e-23</v>
       </c>
       <c r="B277" t="n">
         <v>5</v>
@@ -6372,7 +7148,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1.818277054880119e-25</v>
+        <v>2.038889895634227e-26</v>
       </c>
       <c r="B278" t="n">
         <v>5</v>
@@ -6391,7 +7167,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>8.657748434800606e-29</v>
+        <v>1.456040015811683e-27</v>
       </c>
       <c r="B279" t="n">
         <v>5</v>
@@ -6410,7 +7186,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.174297870015414e-29</v>
+        <v>3.609038641386129e-29</v>
       </c>
       <c r="B280" t="n">
         <v>5</v>
@@ -6429,7 +7205,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2.351791573690141e-29</v>
+        <v>1.627025617018337e-30</v>
       </c>
       <c r="B281" t="n">
         <v>5</v>
@@ -6448,7 +7224,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>3.781246740472846e-06</v>
+        <v>0.000234553932696663</v>
       </c>
       <c r="B282" t="n">
         <v>10</v>
@@ -6467,7 +7243,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.697756422068137e-09</v>
+        <v>1.119385499173447e-10</v>
       </c>
       <c r="B283" t="n">
         <v>10</v>
@@ -6486,7 +7262,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>7.839163582632205e-15</v>
+        <v>2.090386747671038e-13</v>
       </c>
       <c r="B284" t="n">
         <v>10</v>
@@ -6505,7 +7281,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.118395794265372e-16</v>
+        <v>1.10210297908384e-17</v>
       </c>
       <c r="B285" t="n">
         <v>10</v>
@@ -6524,7 +7300,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1.037786417458523e-22</v>
+        <v>6.720925618988457e-22</v>
       </c>
       <c r="B286" t="n">
         <v>10</v>
@@ -6543,7 +7319,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.02686965082060019</v>
+        <v>0.02687522255915017</v>
       </c>
       <c r="B287" t="n">
         <v>30</v>
@@ -6562,7 +7338,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.00402577839675278</v>
+        <v>0.0006025844702026839</v>
       </c>
       <c r="B288" t="n">
         <v>30</v>
@@ -6581,7 +7357,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>3.505181673079316e-05</v>
+        <v>0.0005754557486533064</v>
       </c>
       <c r="B289" t="n">
         <v>30</v>
@@ -6600,7 +7376,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.0005120755182735312</v>
+        <v>0.0001636377995620642</v>
       </c>
       <c r="B290" t="n">
         <v>30</v>
@@ -6619,7 +7395,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.003239642965152154</v>
+        <v>0.0001913805324201662</v>
       </c>
       <c r="B291" t="n">
         <v>30</v>
@@ -6638,7 +7414,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.04788517940190656</v>
+        <v>0.04483842265341532</v>
       </c>
       <c r="B292" t="n">
         <v>50</v>
@@ -6657,7 +7433,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.001352539555647361</v>
+        <v>0.001618264410481965</v>
       </c>
       <c r="B293" t="n">
         <v>50</v>
@@ -6676,7 +7452,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.0001419598388731943</v>
+        <v>0.0001201710487717632</v>
       </c>
       <c r="B294" t="n">
         <v>50</v>
@@ -6695,7 +7471,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>5.445966139701448e-06</v>
+        <v>0.003016542081510477</v>
       </c>
       <c r="B295" t="n">
         <v>50</v>
@@ -6714,7 +7490,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>8.00977449778414e-09</v>
+        <v>5.04605106360915e-05</v>
       </c>
       <c r="B296" t="n">
         <v>50</v>
@@ -6733,7 +7509,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.08478529846063318</v>
+        <v>0.08612922300300926</v>
       </c>
       <c r="B297" t="n">
         <v>100</v>
@@ -6752,7 +7528,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.00180414958613491</v>
+        <v>0.01307139130024305</v>
       </c>
       <c r="B298" t="n">
         <v>100</v>
@@ -6771,7 +7547,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>6.024476224261824e-05</v>
+        <v>4.233001689692963e-05</v>
       </c>
       <c r="B299" t="n">
         <v>100</v>
@@ -6790,7 +7566,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.001396849272047667</v>
+        <v>1.22388676286138e-05</v>
       </c>
       <c r="B300" t="n">
         <v>100</v>
@@ -6809,7 +7585,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>9.941789929664637e-05</v>
+        <v>0.008603927776520208</v>
       </c>
       <c r="B301" t="n">
         <v>100</v>
@@ -6828,7 +7604,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>6.054663642030499e-24</v>
+        <v>4.694380769376518e-23</v>
       </c>
       <c r="B302" t="n">
         <v>5</v>
@@ -6847,7 +7623,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>7.003664888733187e-26</v>
+        <v>3.055100513739934e-26</v>
       </c>
       <c r="B303" t="n">
         <v>5</v>
@@ -6866,7 +7642,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>8.874685183736384e-30</v>
+        <v>4.903756602080115e-28</v>
       </c>
       <c r="B304" t="n">
         <v>5</v>
@@ -6885,7 +7661,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>6.527823990703874e-29</v>
+        <v>6.754621500954914e-30</v>
       </c>
       <c r="B305" t="n">
         <v>5</v>
@@ -6904,7 +7680,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.455329567500399e-29</v>
+        <v>4.585254011597131e-30</v>
       </c>
       <c r="B306" t="n">
         <v>5</v>
@@ -6923,7 +7699,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1.31706946543821e-05</v>
+        <v>5.985728933840028e-05</v>
       </c>
       <c r="B307" t="n">
         <v>10</v>
@@ -6942,7 +7718,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1.823408331221336e-11</v>
+        <v>7.68720789696139e-11</v>
       </c>
       <c r="B308" t="n">
         <v>10</v>
@@ -6961,7 +7737,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>1.187948891322045e-15</v>
+        <v>4.712781381762402e-16</v>
       </c>
       <c r="B309" t="n">
         <v>10</v>
@@ -6980,7 +7756,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.660990269074289e-18</v>
+        <v>1.524185276059733e-17</v>
       </c>
       <c r="B310" t="n">
         <v>10</v>
@@ -6999,7 +7775,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.129614260044495e-22</v>
+        <v>1.309644120155113e-22</v>
       </c>
       <c r="B311" t="n">
         <v>10</v>
@@ -7018,7 +7794,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.02672827569938535</v>
+        <v>0.02733890299154857</v>
       </c>
       <c r="B312" t="n">
         <v>30</v>
@@ -7037,7 +7813,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.0004608348020959086</v>
+        <v>0.0004489650510755522</v>
       </c>
       <c r="B313" t="n">
         <v>30</v>
@@ -7056,7 +7832,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5.821611160423409e-06</v>
+        <v>2.179221335760185e-05</v>
       </c>
       <c r="B314" t="n">
         <v>30</v>
@@ -7075,7 +7851,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1.093262965236291e-05</v>
+        <v>9.184410336371444e-06</v>
       </c>
       <c r="B315" t="n">
         <v>30</v>
@@ -7094,7 +7870,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.001867972978747142</v>
+        <v>0.001407208755451786</v>
       </c>
       <c r="B316" t="n">
         <v>30</v>
@@ -7113,7 +7889,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.04478406205945436</v>
+        <v>0.04491937267775983</v>
       </c>
       <c r="B317" t="n">
         <v>50</v>
@@ -7132,7 +7908,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.0008897481339895252</v>
+        <v>0.0008649249186667053</v>
       </c>
       <c r="B318" t="n">
         <v>50</v>
@@ -7151,7 +7927,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.552353071923415e-05</v>
+        <v>1.420452662013976e-05</v>
       </c>
       <c r="B319" t="n">
         <v>50</v>
@@ -7170,7 +7946,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.0001176968022495593</v>
+        <v>2.755521713087978e-05</v>
       </c>
       <c r="B320" t="n">
         <v>50</v>
@@ -7189,7 +7965,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.0003327537963626315</v>
+        <v>0.0001835451621022109</v>
       </c>
       <c r="B321" t="n">
         <v>50</v>
@@ -7208,7 +7984,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.08581561613478735</v>
+        <v>0.08550241436823053</v>
       </c>
       <c r="B322" t="n">
         <v>100</v>
@@ -7227,7 +8003,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.001749754677116636</v>
+        <v>0.00161085981111855</v>
       </c>
       <c r="B323" t="n">
         <v>100</v>
@@ -7246,7 +8022,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.548987268276174e-05</v>
+        <v>2.095084618793974e-05</v>
       </c>
       <c r="B324" t="n">
         <v>100</v>
@@ -7265,7 +8041,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>3.068997733507592e-06</v>
+        <v>3.858822679606976e-05</v>
       </c>
       <c r="B325" t="n">
         <v>100</v>
@@ -7284,7 +8060,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.00100735895656377</v>
+        <v>8.936401325359452e-06</v>
       </c>
       <c r="B326" t="n">
         <v>100</v>
@@ -7303,7 +8079,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>6.569889209613877e-24</v>
+        <v>8.061152505793164e-24</v>
       </c>
       <c r="B327" t="n">
         <v>5</v>
@@ -7322,7 +8098,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1.715772468855701e-26</v>
+        <v>1.681693677750153e-26</v>
       </c>
       <c r="B328" t="n">
         <v>5</v>
@@ -7341,7 +8117,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4.180962797671363e-29</v>
+        <v>4.61976667620055e-29</v>
       </c>
       <c r="B329" t="n">
         <v>5</v>
@@ -7360,7 +8136,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>6.360191048344408e-30</v>
+        <v>2.761013168273541e-30</v>
       </c>
       <c r="B330" t="n">
         <v>5</v>
@@ -7379,7 +8155,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.770873929588803e-29</v>
+        <v>4.249988126878201e-29</v>
       </c>
       <c r="B331" t="n">
         <v>5</v>
@@ -7398,7 +8174,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.0001667998493523977</v>
+        <v>3.789914606753491e-05</v>
       </c>
       <c r="B332" t="n">
         <v>10</v>
@@ -7417,7 +8193,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2.28680114418928e-11</v>
+        <v>7.97339745347205e-11</v>
       </c>
       <c r="B333" t="n">
         <v>10</v>
@@ -7436,7 +8212,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>3.882631255223769e-16</v>
+        <v>2.471987638455324e-16</v>
       </c>
       <c r="B334" t="n">
         <v>10</v>
@@ -7455,7 +8231,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1.280318009051977e-17</v>
+        <v>1.314957421765026e-19</v>
       </c>
       <c r="B335" t="n">
         <v>10</v>
@@ -7474,7 +8250,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2.298489859489214e-23</v>
+        <v>3.420971480011317e-23</v>
       </c>
       <c r="B336" t="n">
         <v>10</v>
@@ -7493,7 +8269,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.02678436757090134</v>
+        <v>0.02682695287911369</v>
       </c>
       <c r="B337" t="n">
         <v>30</v>
@@ -7512,7 +8288,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.0004501491123223049</v>
+        <v>0.0004943361858842723</v>
       </c>
       <c r="B338" t="n">
         <v>30</v>
@@ -7531,7 +8307,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.0004026010812195833</v>
+        <v>5.00718539179302e-06</v>
       </c>
       <c r="B339" t="n">
         <v>30</v>
@@ -7550,7 +8326,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>4.075184948202807e-06</v>
+        <v>8.286705500374124e-06</v>
       </c>
       <c r="B340" t="n">
         <v>30</v>
@@ -7569,7 +8345,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2.842983469819494e-05</v>
+        <v>0.001669223259772895</v>
       </c>
       <c r="B341" t="n">
         <v>30</v>
@@ -7588,7 +8364,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.04582413279532913</v>
+        <v>0.04497981182602905</v>
       </c>
       <c r="B342" t="n">
         <v>50</v>
@@ -7607,7 +8383,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.0008601756574396004</v>
+        <v>0.0008562623503129872</v>
       </c>
       <c r="B343" t="n">
         <v>50</v>
@@ -7626,7 +8402,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>7.901483520867955e-06</v>
+        <v>0.0002216808113859156</v>
       </c>
       <c r="B344" t="n">
         <v>50</v>
@@ -7645,7 +8421,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.978032647574576e-06</v>
+        <v>7.2608967786972e-07</v>
       </c>
       <c r="B345" t="n">
         <v>50</v>
@@ -7664,7 +8440,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>4.481044206577279e-05</v>
+        <v>1.453500666750131e-05</v>
       </c>
       <c r="B346" t="n">
         <v>50</v>
@@ -7683,7 +8459,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.08642283753770467</v>
+        <v>0.08550611108646872</v>
       </c>
       <c r="B347" t="n">
         <v>100</v>
@@ -7702,7 +8478,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.001661882776736203</v>
+        <v>0.001629747648626164</v>
       </c>
       <c r="B348" t="n">
         <v>100</v>
@@ -7721,7 +8497,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.639488325623677e-05</v>
+        <v>1.858091315941784e-05</v>
       </c>
       <c r="B349" t="n">
         <v>100</v>
@@ -7740,7 +8516,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>7.630325260785079e-05</v>
+        <v>0.001086666669456115</v>
       </c>
       <c r="B350" t="n">
         <v>100</v>
@@ -7759,7 +8535,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1.527696163083306e-05</v>
+        <v>0.0003105484244484564</v>
       </c>
       <c r="B351" t="n">
         <v>100</v>
@@ -7778,7 +8554,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>8.822012941094777e-24</v>
+        <v>2.259712573389124e-24</v>
       </c>
       <c r="B352" t="n">
         <v>5</v>
@@ -7797,7 +8573,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>3.048750183452905e-27</v>
+        <v>3.969548075072131e-27</v>
       </c>
       <c r="B353" t="n">
         <v>5</v>
@@ -7816,7 +8592,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>3.382241131135088e-29</v>
+        <v>5.921387169815221e-29</v>
       </c>
       <c r="B354" t="n">
         <v>5</v>
@@ -7835,7 +8611,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.001734546998318e-29</v>
+        <v>1.054115384601577e-28</v>
       </c>
       <c r="B355" t="n">
         <v>5</v>
@@ -7854,7 +8630,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>4.190823558986625e-30</v>
+        <v>1.143848312570467e-29</v>
       </c>
       <c r="B356" t="n">
         <v>5</v>
@@ -7873,7 +8649,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1.405218040990618e-05</v>
+        <v>2.924088185308061e-06</v>
       </c>
       <c r="B357" t="n">
         <v>10</v>
@@ -7892,7 +8668,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>3.020144321148152e-11</v>
+        <v>1.412880016021545e-12</v>
       </c>
       <c r="B358" t="n">
         <v>10</v>
@@ -7911,7 +8687,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1.583694499820301e-17</v>
+        <v>3.251626191593282e-16</v>
       </c>
       <c r="B359" t="n">
         <v>10</v>
@@ -7930,7 +8706,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>5.316232368699766e-19</v>
+        <v>1.449426678429133e-18</v>
       </c>
       <c r="B360" t="n">
         <v>10</v>
@@ -7949,7 +8725,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>5.975831588480407e-24</v>
+        <v>9.351850973656016e-24</v>
       </c>
       <c r="B361" t="n">
         <v>10</v>
@@ -7968,7 +8744,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.02681269401155545</v>
+        <v>0.02705398330178093</v>
       </c>
       <c r="B362" t="n">
         <v>30</v>
@@ -7987,7 +8763,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.0004507140690542024</v>
+        <v>0.0004590203336340787</v>
       </c>
       <c r="B363" t="n">
         <v>30</v>
@@ -8006,7 +8782,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>3.833597042038935e-06</v>
+        <v>3.554528357113532e-06</v>
       </c>
       <c r="B364" t="n">
         <v>30</v>
@@ -8025,7 +8801,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.0002395405498848718</v>
+        <v>0.00058058711835905</v>
       </c>
       <c r="B365" t="n">
         <v>30</v>
@@ -8044,7 +8820,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>6.211896634470878e-05</v>
+        <v>7.213057998995162e-05</v>
       </c>
       <c r="B366" t="n">
         <v>30</v>
@@ -8063,7 +8839,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.04560033553987088</v>
+        <v>0.04492805285354982</v>
       </c>
       <c r="B367" t="n">
         <v>50</v>
@@ -8082,7 +8858,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.0008412946369372421</v>
+        <v>0.0008568091020853448</v>
       </c>
       <c r="B368" t="n">
         <v>50</v>
@@ -8101,7 +8877,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.004026025317693266</v>
+        <v>7.757308157226896e-06</v>
       </c>
       <c r="B369" t="n">
         <v>50</v>
@@ -8120,7 +8896,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.0004855540174393259</v>
+        <v>2.194518957528947e-06</v>
       </c>
       <c r="B370" t="n">
         <v>50</v>
@@ -8139,7 +8915,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.001711376898027776</v>
+        <v>0.00119452287620913</v>
       </c>
       <c r="B371" t="n">
         <v>50</v>
@@ -8158,7 +8934,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.08511131662262464</v>
+        <v>0.08528934514331191</v>
       </c>
       <c r="B372" t="n">
         <v>100</v>
@@ -8177,7 +8953,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.001712254391032242</v>
+        <v>0.001627220350477623</v>
       </c>
       <c r="B373" t="n">
         <v>100</v>
@@ -8196,7 +8972,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.001879243928972276</v>
+        <v>1.209390637756111e-05</v>
       </c>
       <c r="B374" t="n">
         <v>100</v>
@@ -8215,7 +8991,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>7.882486775879951e-07</v>
+        <v>0.0008129372780812912</v>
       </c>
       <c r="B375" t="n">
         <v>100</v>
@@ -8234,7 +9010,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.000557545688888319</v>
+        <v>2.539470050070876e-05</v>
       </c>
       <c r="B376" t="n">
         <v>100</v>
@@ -8249,782 +9025,6 @@
       </c>
       <c r="E376" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t># of Collocation</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t># of Neurons</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Activation Function</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R - Sample Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>6.250562665604196</v>
-      </c>
-      <c r="B2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5.921334233577193</v>
-      </c>
-      <c r="B3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.921468748422519</v>
-      </c>
-      <c r="B4" t="n">
-        <v>50</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.044713987619626</v>
-      </c>
-      <c r="B5" t="n">
-        <v>50</v>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3.130966407893808</v>
-      </c>
-      <c r="B6" t="n">
-        <v>50</v>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.914350225433154</v>
-      </c>
-      <c r="B7" t="n">
-        <v>50</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.3114297902175858</v>
-      </c>
-      <c r="B8" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5.302985700823721</v>
-      </c>
-      <c r="B9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.06838483572160738</v>
-      </c>
-      <c r="B10" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.0004180098441519274</v>
-      </c>
-      <c r="B11" t="n">
-        <v>50</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>8.205564853483682e-05</v>
-      </c>
-      <c r="B12" t="n">
-        <v>50</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>7.010277391206819e-06</v>
-      </c>
-      <c r="B13" t="n">
-        <v>50</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4.905474801552081e-06</v>
-      </c>
-      <c r="B14" t="n">
-        <v>50</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1.111247952177016e-06</v>
-      </c>
-      <c r="B15" t="n">
-        <v>50</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5.26517286550956</v>
-      </c>
-      <c r="B16" t="n">
-        <v>50</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.253987665740106</v>
-      </c>
-      <c r="B17" t="n">
-        <v>50</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0.04020079789901179</v>
-      </c>
-      <c r="B18" t="n">
-        <v>50</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.05149645666103519</v>
-      </c>
-      <c r="B19" t="n">
-        <v>50</v>
-      </c>
-      <c r="C19" t="n">
-        <v>30</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.04205521426373911</v>
-      </c>
-      <c r="B20" t="n">
-        <v>50</v>
-      </c>
-      <c r="C20" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.04502997580883731</v>
-      </c>
-      <c r="B21" t="n">
-        <v>50</v>
-      </c>
-      <c r="C21" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.04447805440728923</v>
-      </c>
-      <c r="B22" t="n">
-        <v>50</v>
-      </c>
-      <c r="C22" t="n">
-        <v>100</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t># of Collocation</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t># of Neurons</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Activation Function</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R - Sample Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.167311545447515</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5.383157474922093</v>
-      </c>
-      <c r="B3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.112740960512481</v>
-      </c>
-      <c r="B4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>17.49755665237811</v>
-      </c>
-      <c r="B5" t="n">
-        <v>200</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>53.98999881729044</v>
-      </c>
-      <c r="B6" t="n">
-        <v>500</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>relu_derivative</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.488253765725729e-14</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.001896299675108855</v>
-      </c>
-      <c r="B8" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.0001588333834346288</v>
-      </c>
-      <c r="B9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1.965691689690196e-05</v>
-      </c>
-      <c r="B10" t="n">
-        <v>200</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.0001096687754080098</v>
-      </c>
-      <c r="B11" t="n">
-        <v>500</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>tanh_derivative</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.000295992424359304</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.04390207625175292</v>
-      </c>
-      <c r="B13" t="n">
-        <v>50</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.07609607430406534</v>
-      </c>
-      <c r="B14" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.1576228117555067</v>
-      </c>
-      <c r="B15" t="n">
-        <v>200</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.3945127419483332</v>
-      </c>
-      <c r="B16" t="n">
-        <v>500</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>sin_function_derivative</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
